--- a/resultados/comportamentoMMQ_slot04.xlsx
+++ b/resultados/comportamentoMMQ_slot04.xlsx
@@ -476,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>bcsstk25.mtx</t>
+          <t>bcsstk20.mtx</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -485,7 +485,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>0.5339520524283082</v>
+        <v>0.6192768802517316</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -496,10 +496,10 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>14702183510629.93</v>
+        <v>21852027650344.44</v>
       </c>
       <c r="H2" t="n">
-        <v>811815128835033.5</v>
+        <v>1.210404087970013e+16</v>
       </c>
     </row>
     <row r="3">
@@ -508,7 +508,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>bcsstk25.mtx</t>
+          <t>bcsstk20.mtx</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -517,7 +517,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>0.8316517515835263</v>
+        <v>0.8197752226624658</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -528,10 +528,10 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>150579393809436.3</v>
+        <v>373022426391022.1</v>
       </c>
       <c r="H3" t="n">
-        <v>650376029940237.1</v>
+        <v>1.146092401273814e+16</v>
       </c>
     </row>
     <row r="4">
@@ -540,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>bcsstk25.mtx</t>
+          <t>bcsstk20.mtx</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>0.4931908928857473</v>
+        <v>0.6141606502808429</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -560,10 +560,10 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.01703225011802164</v>
+        <v>0.001770496182321258</v>
       </c>
       <c r="H4" t="n">
-        <v>796347797464796.9</v>
+        <v>1.21037876858332e+16</v>
       </c>
     </row>
     <row r="5">
@@ -572,7 +572,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>bcsstk25.mtx</t>
+          <t>bcsstk20.mtx</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -581,7 +581,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>0.4931908928857473</v>
+        <v>0.6141606502808429</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -592,10 +592,10 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.017178125910888</v>
+        <v>1.00177206443608</v>
       </c>
       <c r="H5" t="n">
-        <v>796347797464796.9</v>
+        <v>1.21037876858332e+16</v>
       </c>
     </row>
     <row r="6">
@@ -604,7 +604,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>bcsstk25.mtx</t>
+          <t>bcsstk20.mtx</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -613,7 +613,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>0.7968096165744423</v>
+        <v>0.8154749191365289</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -624,10 +624,10 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.1776666310870834</v>
+        <v>0.03026896323163726</v>
       </c>
       <c r="H6" t="n">
-        <v>655750402445468</v>
+        <v>1.148779929300719e+16</v>
       </c>
     </row>
     <row r="7">
@@ -636,7 +636,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>bcsstk25.mtx</t>
+          <t>bcsstk20.mtx</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -645,7 +645,7 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>0.8629417534670962</v>
+        <v>0.9260045434586128</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -653,13 +653,13 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>616746317175381.9</v>
+        <v>1.152962454331069e+16</v>
       </c>
       <c r="G7" t="n">
-        <v>61518698308946.41</v>
+        <v>102270314744866.9</v>
       </c>
       <c r="H7" t="n">
-        <v>-1950688116596.521</v>
+        <v>-2297665345557.795</v>
       </c>
     </row>
     <row r="8">
@@ -668,7 +668,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>bcsstk25.mtx</t>
+          <t>bcsstk20.mtx</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -677,7 +677,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>0.5053196788511606</v>
+        <v>0.4133460747056091</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -688,10 +688,10 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>23950756398937.7</v>
+        <v>-106781173216572.2</v>
       </c>
       <c r="H8" t="n">
-        <v>778667248791788.4</v>
+        <v>1.429012976245724e+16</v>
       </c>
     </row>
     <row r="9">
@@ -700,7 +700,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>bcsstk25.mtx</t>
+          <t>bcsstk20.mtx</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -709,7 +709,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>0.7660046777516827</v>
+        <v>0.5737990314101691</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
@@ -720,10 +720,10 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>177902009102780.8</v>
+        <v>-1405734736221162</v>
       </c>
       <c r="H9" t="n">
-        <v>641212082195808.8</v>
+        <v>1.639568672070732e+16</v>
       </c>
     </row>
     <row r="10">
@@ -732,7 +732,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>bcsstk25.mtx</t>
+          <t>bcsstk20.mtx</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -741,7 +741,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>0.4867411656582091</v>
+        <v>0.4274844692385384</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
@@ -752,10 +752,10 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0284693870417788</v>
+        <v>-0.007803622714864639</v>
       </c>
       <c r="H10" t="n">
-        <v>759069472161616.6</v>
+        <v>1.426013698276325e+16</v>
       </c>
     </row>
     <row r="11">
@@ -764,7 +764,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>bcsstk25.mtx</t>
+          <t>bcsstk20.mtx</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -773,7 +773,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>0.4867411656582091</v>
+        <v>0.4274844692385384</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -784,10 +784,10 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>1.028878513337467</v>
+        <v>0.9922267465008945</v>
       </c>
       <c r="H11" t="n">
-        <v>759069472161616.6</v>
+        <v>1.426013698276325e+16</v>
       </c>
     </row>
     <row r="12">
@@ -796,7 +796,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>bcsstk25.mtx</t>
+          <t>bcsstk20.mtx</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -805,7 +805,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>0.7487344655944536</v>
+        <v>0.5898153724036205</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -816,10 +816,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.2130207965176484</v>
+        <v>-0.1024188344486553</v>
       </c>
       <c r="H12" t="n">
-        <v>642729588953305.4</v>
+        <v>1.661950876891633e+16</v>
       </c>
     </row>
     <row r="13">
@@ -828,7 +828,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>bcsstk25.mtx</t>
+          <t>bcsstk20.mtx</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>0.8441807632612396</v>
+        <v>0.7552712049745298</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -845,13 +845,13 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>534626408744023.4</v>
+        <v>1.748889536664348e+16</v>
       </c>
       <c r="G13" t="n">
-        <v>105297703081525.8</v>
+        <v>-699145173991803</v>
       </c>
       <c r="H13" t="n">
-        <v>-4785114510740.479</v>
+        <v>23694560031009.23</v>
       </c>
     </row>
     <row r="14">
@@ -860,7 +860,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>bcsstk18.mtx</t>
+          <t>bcsstk25.mtx</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -869,7 +869,7 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>0.0201583114839709</v>
+        <v>0.5381447013071035</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -880,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>-487907607.2956141</v>
+        <v>4007668852482.789</v>
       </c>
       <c r="H14" t="n">
-        <v>53019289024.17056</v>
+        <v>987602307154702.1</v>
       </c>
     </row>
     <row r="15">
@@ -892,7 +892,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>bcsstk18.mtx</t>
+          <t>bcsstk25.mtx</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -901,7 +901,7 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>0.1558783524274792</v>
+        <v>0.7205718120652813</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -912,10 +912,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>-17750517483.61295</v>
+        <v>57007308399308.11</v>
       </c>
       <c r="H15" t="n">
-        <v>91793673411.97563</v>
+        <v>898405177682182</v>
       </c>
     </row>
     <row r="16">
@@ -924,7 +924,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>bcsstk18.mtx</t>
+          <t>bcsstk25.mtx</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -933,7 +933,7 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>0.02199589110408751</v>
+        <v>0.5289202689929579</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
@@ -944,10 +944,10 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.004753969931616153</v>
+        <v>0.003933402181951078</v>
       </c>
       <c r="H16" t="n">
-        <v>35036952082.85721</v>
+        <v>987364950614541.6</v>
       </c>
     </row>
     <row r="17">
@@ -956,7 +956,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>bcsstk18.mtx</t>
+          <t>bcsstk25.mtx</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -965,7 +965,7 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>0.02199589110408751</v>
+        <v>0.5289202689929579</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
@@ -976,10 +976,10 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>1.004765287974776</v>
+        <v>1.003941148161001</v>
       </c>
       <c r="H17" t="n">
-        <v>35036952082.85721</v>
+        <v>987364950614541.6</v>
       </c>
     </row>
     <row r="18">
@@ -988,7 +988,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>bcsstk18.mtx</t>
+          <t>bcsstk25.mtx</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -997,7 +997,7 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>0.008973797412032039</v>
+        <v>0.7113155996779227</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
@@ -1008,10 +1008,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>-0.03972659857442964</v>
+        <v>0.0560730297511078</v>
       </c>
       <c r="H18" t="n">
-        <v>42952766783.42287</v>
+        <v>904320854550665.8</v>
       </c>
     </row>
     <row r="19">
@@ -1020,7 +1020,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>bcsstk18.mtx</t>
+          <t>bcsstk25.mtx</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1029,7 +1029,7 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>0.1252018337852703</v>
+        <v>0.8709931847442034</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
@@ -1037,13 +1037,13 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>83291252348.25677</v>
+        <v>880355296487394.8</v>
       </c>
       <c r="G19" t="n">
-        <v>-4917951020.576519</v>
+        <v>22097526073474.3</v>
       </c>
       <c r="H19" t="n">
-        <v>110751085.3320226</v>
+        <v>-646066329321.1263</v>
       </c>
     </row>
     <row r="20">
@@ -1052,7 +1052,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>bcsstk18.mtx</t>
+          <t>bcsstk25.mtx</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1061,7 +1061,7 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>0.04372714340060715</v>
+        <v>0.02406615847329657</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
@@ -1072,10 +1072,10 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>-1021208014.985878</v>
+        <v>288255950627.2075</v>
       </c>
       <c r="H20" t="n">
-        <v>57748995492.84114</v>
+        <v>1057205819529899</v>
       </c>
     </row>
     <row r="21">
@@ -1084,7 +1084,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>bcsstk18.mtx</t>
+          <t>bcsstk25.mtx</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1093,7 +1093,7 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>0.2082850499913606</v>
+        <v>0.06319032424539348</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
@@ -1104,10 +1104,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>-24429231680.58657</v>
+        <v>4504474578687.057</v>
       </c>
       <c r="H21" t="n">
-        <v>103161509712.7405</v>
+        <v>1049912077724784</v>
       </c>
     </row>
     <row r="22">
@@ -1116,7 +1116,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>bcsstk18.mtx</t>
+          <t>bcsstk25.mtx</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1124,7 +1124,9 @@
           <t>MP_Aitken</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr"/>
+      <c r="D22" t="n">
+        <v>0.02513098331931295</v>
+      </c>
       <c r="E22" t="inlineStr">
         <is>
           <t>Exponencial</t>
@@ -1133,8 +1135,12 @@
       <c r="F22" t="n">
         <v>0</v>
       </c>
-      <c r="G22" t="inlineStr"/>
-      <c r="H22" t="inlineStr"/>
+      <c r="G22" t="n">
+        <v>0.0002796111552108927</v>
+      </c>
+      <c r="H22" t="n">
+        <v>1057104805550562</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1142,7 +1148,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>bcsstk18.mtx</t>
+          <t>bcsstk25.mtx</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1150,7 +1156,9 @@
           <t>MP_Aitken</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr"/>
+      <c r="D23" t="n">
+        <v>0.02513098331931295</v>
+      </c>
       <c r="E23" t="inlineStr">
         <is>
           <t>Geometrico</t>
@@ -1159,8 +1167,12 @@
       <c r="F23" t="n">
         <v>0</v>
       </c>
-      <c r="G23" t="inlineStr"/>
-      <c r="H23" t="inlineStr"/>
+      <c r="G23" t="n">
+        <v>1.000279650250054</v>
+      </c>
+      <c r="H23" t="n">
+        <v>1057104805550562</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1168,7 +1180,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>bcsstk18.mtx</t>
+          <t>bcsstk25.mtx</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1176,7 +1188,9 @@
           <t>MP_Aitken</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr"/>
+      <c r="D24" t="n">
+        <v>0.06494645239144183</v>
+      </c>
       <c r="E24" t="inlineStr">
         <is>
           <t>Potencial</t>
@@ -1185,8 +1199,12 @@
       <c r="F24" t="n">
         <v>0</v>
       </c>
-      <c r="G24" t="inlineStr"/>
-      <c r="H24" t="inlineStr"/>
+      <c r="G24" t="n">
+        <v>0.004334823534037809</v>
+      </c>
+      <c r="H24" t="n">
+        <v>1049735302656164</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1194,7 +1212,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>bcsstk18.mtx</t>
+          <t>bcsstk25.mtx</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1203,7 +1221,7 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>0.2085540249553552</v>
+        <v>0.2515896211915658</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
@@ -1211,13 +1229,13 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>102710396197.0918</v>
+        <v>1028677882798892</v>
       </c>
       <c r="G25" t="n">
-        <v>-8955572845.14776</v>
+        <v>6380662777927.221</v>
       </c>
       <c r="H25" t="n">
-        <v>240435297.8836933</v>
+        <v>-290114610823.8176</v>
       </c>
     </row>
     <row r="26">
@@ -1226,7 +1244,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>bcsstk23.mtx</t>
+          <t>bcsstk22.mtx</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1235,7 +1253,7 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>0.0614605480280148</v>
+        <v>0.6105044476528662</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
@@ -1246,10 +1264,10 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>-534036273276333.4</v>
+        <v>5026.60185312302</v>
       </c>
       <c r="H26" t="n">
-        <v>3.377353381443238e+16</v>
+        <v>5724741.024056089</v>
       </c>
     </row>
     <row r="27">
@@ -1258,7 +1276,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>bcsstk23.mtx</t>
+          <t>bcsstk22.mtx</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1267,7 +1285,7 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>0.2311217470503582</v>
+        <v>0.8171407595373851</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
@@ -1278,10 +1296,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>-1.103578623329341e+16</v>
+        <v>90427.94662437891</v>
       </c>
       <c r="H27" t="n">
-        <v>5.302924652642874e+16</v>
+        <v>5564599.803969181</v>
       </c>
     </row>
     <row r="28">
@@ -1290,7 +1308,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>bcsstk23.mtx</t>
+          <t>bcsstk22.mtx</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1299,7 +1317,7 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>0.01531169723096899</v>
+        <v>0.6074594708251887</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
@@ -1310,10 +1328,10 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>-0.004587019353926133</v>
+        <v>0.0008694734612899453</v>
       </c>
       <c r="H28" t="n">
-        <v>2.466944195199772e+16</v>
+        <v>5724670.945285516</v>
       </c>
     </row>
     <row r="29">
@@ -1322,7 +1340,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>bcsstk23.mtx</t>
+          <t>bcsstk22.mtx</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1331,7 +1349,7 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>0.01531169723096899</v>
+        <v>0.6074594708251887</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
@@ -1342,10 +1360,10 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0.9954234849520615</v>
+        <v>1.000869851562915</v>
       </c>
       <c r="H29" t="n">
-        <v>2.466944195199772e+16</v>
+        <v>5724670.945285516</v>
       </c>
     </row>
     <row r="30">
@@ -1354,7 +1372,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>bcsstk23.mtx</t>
+          <t>bcsstk22.mtx</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1363,7 +1381,7 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>0.1072578274629196</v>
+        <v>0.8145311163785385</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
@@ -1374,10 +1392,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>-0.12937302571943</v>
+        <v>0.01565581490837308</v>
       </c>
       <c r="H30" t="n">
-        <v>3.17558545885488e+16</v>
+        <v>5568052.120809272</v>
       </c>
     </row>
     <row r="31">
@@ -1386,7 +1404,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>bcsstk23.mtx</t>
+          <t>bcsstk22.mtx</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1395,7 +1413,7 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>0.1704023712859091</v>
+        <v>0.9136675099664339</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
@@ -1403,13 +1421,13 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>4.944004129783806e+16</v>
+        <v>5588676.060146277</v>
       </c>
       <c r="G31" t="n">
-        <v>-3382492179350093</v>
+        <v>23201.34432483074</v>
       </c>
       <c r="H31" t="n">
-        <v>89014247064804.98</v>
+        <v>-491.2092559920939</v>
       </c>
     </row>
     <row r="32">
@@ -1418,7 +1436,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>bcsstk23.mtx</t>
+          <t>bcsstk22.mtx</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1427,7 +1445,7 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>0.1146113399505255</v>
+        <v>0.06623479720541392</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
@@ -1438,10 +1456,10 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>-1503641482788742</v>
+        <v>1750.345632141158</v>
       </c>
       <c r="H32" t="n">
-        <v>4.261704827583925e+16</v>
+        <v>5829212.395839605</v>
       </c>
     </row>
     <row r="33">
@@ -1450,7 +1468,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>bcsstk23.mtx</t>
+          <t>bcsstk22.mtx</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1459,7 +1477,7 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>0.3171226684851118</v>
+        <v>0.1303150280625835</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
@@ -1470,10 +1488,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>-1.74307300215329e+16</v>
+        <v>24627.07306963553</v>
       </c>
       <c r="H33" t="n">
-        <v>6.367131241350158e+16</v>
+        <v>5791014.987934697</v>
       </c>
     </row>
     <row r="34">
@@ -1482,7 +1500,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>bcsstk23.mtx</t>
+          <t>bcsstk22.mtx</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1491,7 +1509,7 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>0.04957333530242895</v>
+        <v>0.06712397272406039</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
@@ -1502,10 +1520,10 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>-0.01704979542866042</v>
+        <v>0.0003031121579020316</v>
       </c>
       <c r="H34" t="n">
-        <v>2.82935004876478e+16</v>
+        <v>5828942.892686817</v>
       </c>
     </row>
     <row r="35">
@@ -1514,7 +1532,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>bcsstk23.mtx</t>
+          <t>bcsstk22.mtx</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -1523,7 +1541,7 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>0.04957333530242895</v>
+        <v>0.06712397272406039</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
@@ -1534,10 +1552,10 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0.9830947297925723</v>
+        <v>1.000303158101034</v>
       </c>
       <c r="H35" t="n">
-        <v>2.82935004876478e+16</v>
+        <v>5828942.892686817</v>
       </c>
     </row>
     <row r="36">
@@ -1546,7 +1564,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>bcsstk23.mtx</t>
+          <t>bcsstk22.mtx</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -1555,7 +1573,7 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>0.1770701266673411</v>
+        <v>0.1315488116738597</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
@@ -1566,10 +1584,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>-0.2245635064021483</v>
+        <v>0.004256403907798591</v>
       </c>
       <c r="H36" t="n">
-        <v>3.798143318786544e+16</v>
+        <v>5790625.713685857</v>
       </c>
     </row>
     <row r="37">
@@ -1578,7 +1596,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>bcsstk23.mtx</t>
+          <t>bcsstk22.mtx</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -1587,7 +1605,7 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>0.2789068145722065</v>
+        <v>0.3245965316120338</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
@@ -1595,13 +1613,13 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>6.844874098751486e+16</v>
+        <v>5717684.825659527</v>
       </c>
       <c r="G37" t="n">
-        <v>-8884125114696063</v>
+        <v>24681.24791215659</v>
       </c>
       <c r="H37" t="n">
-        <v>369024181595366.2</v>
+        <v>-1042.31374000072</v>
       </c>
     </row>
     <row r="38">
@@ -1610,7 +1628,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>bcsstk22.mtx</t>
+          <t>bcsstk26.mtx</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -1619,7 +1637,7 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>0.07575893868556353</v>
+        <v>0.8012922715219996</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
@@ -1630,10 +1648,10 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>-92883.15098156345</v>
+        <v>550327972.1437485</v>
       </c>
       <c r="H38" t="n">
-        <v>7876081.831759827</v>
+        <v>138352666774.4753</v>
       </c>
     </row>
     <row r="39">
@@ -1642,7 +1660,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>bcsstk22.mtx</t>
+          <t>bcsstk26.mtx</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -1651,7 +1669,7 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>0.2644747689875483</v>
+        <v>0.9339644235917075</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
@@ -1662,10 +1680,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>-1902191.42603513</v>
+        <v>12132914012.42465</v>
       </c>
       <c r="H39" t="n">
-        <v>11191598.94063725</v>
+        <v>114896908473.972</v>
       </c>
     </row>
     <row r="40">
@@ -1674,7 +1692,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>bcsstk22.mtx</t>
+          <t>bcsstk26.mtx</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -1683,7 +1701,7 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>0.05874456914220525</v>
+        <v>0.7942421007062178</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
@@ -1694,10 +1712,10 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>-0.00646187770528626</v>
+        <v>0.003686622907146129</v>
       </c>
       <c r="H40" t="n">
-        <v>6723428.609074479</v>
+        <v>138541766262.0901</v>
       </c>
     </row>
     <row r="41">
@@ -1706,7 +1724,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>bcsstk22.mtx</t>
+          <t>bcsstk26.mtx</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -1715,7 +1733,7 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>0.05874456914220525</v>
+        <v>0.7942421007062178</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
@@ -1726,10 +1744,10 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0.9935589553287932</v>
+        <v>1.003693426860009</v>
       </c>
       <c r="H41" t="n">
-        <v>6723428.609074479</v>
+        <v>138541766262.0901</v>
       </c>
     </row>
     <row r="42">
@@ -1738,7 +1756,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>bcsstk22.mtx</t>
+          <t>bcsstk26.mtx</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -1747,7 +1765,7 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>0.2276459272220759</v>
+        <v>0.9331952925535627</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
@@ -1758,10 +1776,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>-0.1394270096513984</v>
+        <v>0.08160417473176124</v>
       </c>
       <c r="H42" t="n">
-        <v>8622136.880951878</v>
+        <v>118277607919.1792</v>
       </c>
     </row>
     <row r="43">
@@ -1770,7 +1788,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>bcsstk22.mtx</t>
+          <t>bcsstk26.mtx</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -1779,7 +1797,7 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>0.197569850499247</v>
+        <v>0.9843255459745572</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
@@ -1787,13 +1805,13 @@
         </is>
       </c>
       <c r="F43" t="n">
-        <v>10546936.43433269</v>
+        <v>126130840010.7244</v>
       </c>
       <c r="G43" t="n">
-        <v>-564210.4337885395</v>
+        <v>1788698498.537045</v>
       </c>
       <c r="H43" t="n">
-        <v>14282.64493354473</v>
+        <v>-24281775.02731953</v>
       </c>
     </row>
     <row r="44">
@@ -1802,7 +1820,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>bcsstk22.mtx</t>
+          <t>bcsstk26.mtx</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -1811,7 +1829,7 @@
         </is>
       </c>
       <c r="D44" t="n">
-        <v>0.149052568893216</v>
+        <v>0.03668942481296265</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
@@ -1822,10 +1840,10 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>-332094.6993791631</v>
+        <v>934171600.7032777</v>
       </c>
       <c r="H44" t="n">
-        <v>9822488.302972427</v>
+        <v>137284207952.4582</v>
       </c>
     </row>
     <row r="45">
@@ -1834,7 +1852,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>bcsstk22.mtx</t>
+          <t>bcsstk26.mtx</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -1843,7 +1861,7 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>0.3777854565367865</v>
+        <v>0.051260859029064</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
@@ -1854,10 +1872,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>-3355090.918334882</v>
+        <v>17951882184.28238</v>
       </c>
       <c r="H45" t="n">
-        <v>13446139.98801276</v>
+        <v>104395869769.9698</v>
       </c>
     </row>
     <row r="46">
@@ -1866,7 +1884,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>bcsstk22.mtx</t>
+          <t>bcsstk26.mtx</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -1875,7 +1893,7 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>0.127961587416095</v>
+        <v>0.09408575525318709</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
@@ -1886,10 +1904,10 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>-0.02431084551642772</v>
+        <v>0.007210309000477411</v>
       </c>
       <c r="H46" t="n">
-        <v>7814121.384624112</v>
+        <v>131830847699.0303</v>
       </c>
     </row>
     <row r="47">
@@ -1898,7 +1916,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>bcsstk22.mtx</t>
+          <t>bcsstk26.mtx</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -1907,7 +1925,7 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>0.127961587416095</v>
+        <v>0.09408575525318709</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
@@ -1918,10 +1936,10 @@
         <v>0</v>
       </c>
       <c r="G47" t="n">
-        <v>0.9759822828841636</v>
+        <v>1.00723636586679</v>
       </c>
       <c r="H47" t="n">
-        <v>7814121.384624112</v>
+        <v>131830847699.0303</v>
       </c>
     </row>
     <row r="48">
@@ -1930,7 +1948,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>bcsstk22.mtx</t>
+          <t>bcsstk26.mtx</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -1939,7 +1957,7 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>0.3410692084764633</v>
+        <v>0.1064315383379332</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
@@ -1950,10 +1968,10 @@
         <v>0</v>
       </c>
       <c r="G48" t="n">
-        <v>-0.2518668296585673</v>
+        <v>0.1246774610525998</v>
       </c>
       <c r="H48" t="n">
-        <v>10314347.62442903</v>
+        <v>106398765003.1883</v>
       </c>
     </row>
     <row r="49">
@@ -1962,7 +1980,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>bcsstk22.mtx</t>
+          <t>bcsstk26.mtx</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -1971,7 +1989,7 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>0.3552420930579347</v>
+        <v>0.07956471302421152</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
@@ -1979,13 +1997,13 @@
         </is>
       </c>
       <c r="F49" t="n">
-        <v>14930166.93773026</v>
+        <v>97388554886.36154</v>
       </c>
       <c r="G49" t="n">
-        <v>-1945045.847197425</v>
+        <v>6030013749.975442</v>
       </c>
       <c r="H49" t="n">
-        <v>89608.3971010145</v>
+        <v>-130662619.2121067</v>
       </c>
     </row>
     <row r="50">
@@ -1994,7 +2012,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>bcsstk26.mtx</t>
+          <t>bcsstk27.mtx</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2003,7 +2021,7 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>0.5294503419175284</v>
+        <v>0.4194140817341397</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
@@ -2014,10 +2032,10 @@
         <v>0</v>
       </c>
       <c r="G50" t="n">
-        <v>692143731.2758074</v>
+        <v>2686.11208775754</v>
       </c>
       <c r="H50" t="n">
-        <v>133814740834.1212</v>
+        <v>3297132.127196576</v>
       </c>
     </row>
     <row r="51">
@@ -2026,7 +2044,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>bcsstk26.mtx</t>
+          <t>bcsstk27.mtx</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2035,7 +2053,7 @@
         </is>
       </c>
       <c r="D51" t="n">
-        <v>0.5831401112161171</v>
+        <v>0.7114734337403679</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
@@ -2046,10 +2064,10 @@
         <v>0</v>
       </c>
       <c r="G51" t="n">
-        <v>11036118571.12941</v>
+        <v>116723.40998335</v>
       </c>
       <c r="H51" t="n">
-        <v>118182718901.0582</v>
+        <v>2996378.368816562</v>
       </c>
     </row>
     <row r="52">
@@ -2058,7 +2076,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>bcsstk26.mtx</t>
+          <t>bcsstk27.mtx</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2067,7 +2085,7 @@
         </is>
       </c>
       <c r="D52" t="n">
-        <v>0.4485553826919931</v>
+        <v>0.4041080720444546</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
@@ -2078,10 +2096,10 @@
         <v>0</v>
       </c>
       <c r="G52" t="n">
-        <v>0.004992364622128191</v>
+        <v>0.0008109535510606928</v>
       </c>
       <c r="H52" t="n">
-        <v>132884033415.6773</v>
+        <v>3294105.431417936</v>
       </c>
     </row>
     <row r="53">
@@ -2090,7 +2108,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>bcsstk26.mtx</t>
+          <t>bcsstk27.mtx</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2099,7 +2117,7 @@
         </is>
       </c>
       <c r="D53" t="n">
-        <v>0.4485553826919931</v>
+        <v>0.4041080720444546</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
@@ -2110,10 +2128,10 @@
         <v>0</v>
       </c>
       <c r="G53" t="n">
-        <v>1.005004847238334</v>
+        <v>1.000811282462796</v>
       </c>
       <c r="H53" t="n">
-        <v>132884033415.6773</v>
+        <v>3294105.431417936</v>
       </c>
     </row>
     <row r="54">
@@ -2122,7 +2140,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>bcsstk26.mtx</t>
+          <t>bcsstk27.mtx</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2131,7 +2149,7 @@
         </is>
       </c>
       <c r="D54" t="n">
-        <v>0.5280438682761507</v>
+        <v>0.6941434053670265</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
@@ -2142,10 +2160,10 @@
         <v>0</v>
       </c>
       <c r="G54" t="n">
-        <v>0.08229614451680085</v>
+        <v>0.03546074154994979</v>
       </c>
       <c r="H54" t="n">
-        <v>117794199799.0799</v>
+        <v>3005777.005314562</v>
       </c>
     </row>
     <row r="55">
@@ -2154,7 +2172,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>bcsstk26.mtx</t>
+          <t>bcsstk27.mtx</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2163,7 +2181,7 @@
         </is>
       </c>
       <c r="D55" t="n">
-        <v>0.6490167962186364</v>
+        <v>0.7184930008999119</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
@@ -2171,13 +2189,13 @@
         </is>
       </c>
       <c r="F55" t="n">
-        <v>123392169741.8721</v>
+        <v>3136748.165932115</v>
       </c>
       <c r="G55" t="n">
-        <v>1994965117.806948</v>
+        <v>12450.18639247091</v>
       </c>
       <c r="H55" t="n">
-        <v>-27719603.96874766</v>
+        <v>-108.489714496815</v>
       </c>
     </row>
     <row r="56">
@@ -2186,7 +2204,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>bcsstk26.mtx</t>
+          <t>bcsstk27.mtx</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -2195,7 +2213,7 @@
         </is>
       </c>
       <c r="D56" t="n">
-        <v>0.07658588479378328</v>
+        <v>0.456542680165286</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
@@ -2206,10 +2224,10 @@
         <v>0</v>
       </c>
       <c r="G56" t="n">
-        <v>1174423367.145473</v>
+        <v>3163.089947221611</v>
       </c>
       <c r="H56" t="n">
-        <v>131510871257.5003</v>
+        <v>3348391.622639206</v>
       </c>
     </row>
     <row r="57">
@@ -2218,7 +2236,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>bcsstk26.mtx</t>
+          <t>bcsstk27.mtx</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -2227,7 +2245,7 @@
         </is>
       </c>
       <c r="D57" t="n">
-        <v>0.08551324300097581</v>
+        <v>0.6965821594808719</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
@@ -2238,10 +2256,10 @@
         <v>0</v>
       </c>
       <c r="G57" t="n">
-        <v>14356479777.63597</v>
+        <v>83781.83389464485</v>
       </c>
       <c r="H57" t="n">
-        <v>114660078438.5511</v>
+        <v>3170556.82970206</v>
       </c>
     </row>
     <row r="58">
@@ -2250,7 +2268,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>bcsstk26.mtx</t>
+          <t>bcsstk27.mtx</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -2259,7 +2277,7 @@
         </is>
       </c>
       <c r="D58" t="n">
-        <v>0.1577383662094765</v>
+        <v>0.4458309371469537</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
@@ -2270,10 +2288,10 @@
         <v>0</v>
       </c>
       <c r="G58" t="n">
-        <v>0.008711632792575089</v>
+        <v>0.0009376314511989471</v>
       </c>
       <c r="H58" t="n">
-        <v>127169099937.7838</v>
+        <v>3347410.271269264</v>
       </c>
     </row>
     <row r="59">
@@ -2282,7 +2300,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>bcsstk26.mtx</t>
+          <t>bcsstk27.mtx</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -2291,7 +2309,7 @@
         </is>
       </c>
       <c r="D59" t="n">
-        <v>0.1577383662094765</v>
+        <v>0.4458309371469537</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
@@ -2302,10 +2320,10 @@
         <v>0</v>
       </c>
       <c r="G59" t="n">
-        <v>1.008749689497269</v>
+        <v>1.000938071164987</v>
       </c>
       <c r="H59" t="n">
-        <v>127169099937.7838</v>
+        <v>3347410.271269264</v>
       </c>
     </row>
     <row r="60">
@@ -2314,7 +2332,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>bcsstk26.mtx</t>
+          <t>bcsstk27.mtx</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -2323,7 +2341,7 @@
         </is>
       </c>
       <c r="D60" t="n">
-        <v>0.1578266925265534</v>
+        <v>0.6845516460743807</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
@@ -2334,10 +2352,10 @@
         <v>0</v>
       </c>
       <c r="G60" t="n">
-        <v>0.1008096432940152</v>
+        <v>0.02491397441016103</v>
       </c>
       <c r="H60" t="n">
-        <v>113901045090.2078</v>
+        <v>3174736.427580512</v>
       </c>
     </row>
     <row r="61">
@@ -2346,7 +2364,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>bcsstk26.mtx</t>
+          <t>bcsstk27.mtx</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -2355,7 +2373,7 @@
         </is>
       </c>
       <c r="D61" t="n">
-        <v>0.1154115512376967</v>
+        <v>0.75027334864132</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
@@ -2363,13 +2381,13 @@
         </is>
       </c>
       <c r="F61" t="n">
-        <v>111473144000.6309</v>
+        <v>3225914.654178123</v>
       </c>
       <c r="G61" t="n">
-        <v>4514044576.623698</v>
+        <v>14966.34330278109</v>
       </c>
       <c r="H61" t="n">
-        <v>-95417748.84223516</v>
+        <v>-218.578765843695</v>
       </c>
     </row>
     <row r="62">
@@ -2378,7 +2396,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>bcsstk20.mtx</t>
+          <t>bcsstk21.mtx</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -2387,7 +2405,7 @@
         </is>
       </c>
       <c r="D62" t="n">
-        <v>0.06207138931937597</v>
+        <v>0.3741806873974643</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
@@ -2398,10 +2416,10 @@
         <v>0</v>
       </c>
       <c r="G62" t="n">
-        <v>-128967214588812.4</v>
+        <v>36805.70576779321</v>
       </c>
       <c r="H62" t="n">
-        <v>1.521247068158795e+16</v>
+        <v>118214031.1809067</v>
       </c>
     </row>
     <row r="63">
@@ -2410,7 +2428,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>bcsstk20.mtx</t>
+          <t>bcsstk21.mtx</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -2419,7 +2437,7 @@
         </is>
       </c>
       <c r="D63" t="n">
-        <v>0.2378452516157799</v>
+        <v>0.743157887033258</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
@@ -2430,10 +2448,10 @@
         <v>0</v>
       </c>
       <c r="G63" t="n">
-        <v>-2613304609469080</v>
+        <v>5747331.781815585</v>
       </c>
       <c r="H63" t="n">
-        <v>1.971696929496902e+16</v>
+        <v>96456979.33484356</v>
       </c>
     </row>
     <row r="64">
@@ -2442,7 +2460,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>bcsstk20.mtx</t>
+          <t>bcsstk21.mtx</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -2451,7 +2469,7 @@
         </is>
       </c>
       <c r="D64" t="n">
-        <v>0.0381192735327098</v>
+        <v>0.3346985299538624</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
@@ -2462,10 +2480,10 @@
         <v>0</v>
       </c>
       <c r="G64" t="n">
-        <v>-0.004512155535390023</v>
+        <v>0.0003143343580941954</v>
       </c>
       <c r="H64" t="n">
-        <v>1.37720905472358e+16</v>
+        <v>117847669.0569122</v>
       </c>
     </row>
     <row r="65">
@@ -2474,7 +2492,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>bcsstk20.mtx</t>
+          <t>bcsstk21.mtx</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -2483,7 +2501,7 @@
         </is>
       </c>
       <c r="D65" t="n">
-        <v>0.0381192735327098</v>
+        <v>0.3346985299538624</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
@@ -2494,10 +2512,10 @@
         <v>0</v>
       </c>
       <c r="G65" t="n">
-        <v>0.995498008944746</v>
+        <v>1.000314383766315</v>
       </c>
       <c r="H65" t="n">
-        <v>1.37720905472358e+16</v>
+        <v>117847669.0569122</v>
       </c>
     </row>
     <row r="66">
@@ -2506,7 +2524,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>bcsstk20.mtx</t>
+          <t>bcsstk21.mtx</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -2515,7 +2533,7 @@
         </is>
       </c>
       <c r="D66" t="n">
-        <v>0.1844766276444099</v>
+        <v>0.6920133930951623</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
@@ -2526,10 +2544,10 @@
         <v>0</v>
       </c>
       <c r="G66" t="n">
-        <v>-0.10275231940855</v>
+        <v>0.05008105381075525</v>
       </c>
       <c r="H66" t="n">
-        <v>1.65836279562253e+16</v>
+        <v>97389785.29228935</v>
       </c>
     </row>
     <row r="67">
@@ -2538,7 +2556,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>bcsstk20.mtx</t>
+          <t>bcsstk21.mtx</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -2547,7 +2565,7 @@
         </is>
       </c>
       <c r="D67" t="n">
-        <v>0.1792351799241666</v>
+        <v>0.6519728415452762</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
@@ -2555,13 +2573,13 @@
         </is>
       </c>
       <c r="F67" t="n">
-        <v>1.90028470918134e+16</v>
+        <v>110877906.78997</v>
       </c>
       <c r="G67" t="n">
-        <v>-839662791506084.9</v>
+        <v>162970.7180550194</v>
       </c>
       <c r="H67" t="n">
-        <v>22925663771524.92</v>
+        <v>-371.0735655506651</v>
       </c>
     </row>
     <row r="68">
@@ -2570,7 +2588,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>bcsstk20.mtx</t>
+          <t>bcsstk21.mtx</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -2579,7 +2597,7 @@
         </is>
       </c>
       <c r="D68" t="n">
-        <v>0.1460259534720758</v>
+        <v>0.06474754822491673</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
@@ -2590,10 +2608,10 @@
         <v>0</v>
       </c>
       <c r="G68" t="n">
-        <v>-358221602525108.2</v>
+        <v>99088.34463987811</v>
       </c>
       <c r="H68" t="n">
-        <v>1.774544060575801e+16</v>
+        <v>113984982.4907654</v>
       </c>
     </row>
     <row r="69">
@@ -2602,7 +2620,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>bcsstk20.mtx</t>
+          <t>bcsstk21.mtx</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -2611,7 +2629,7 @@
         </is>
       </c>
       <c r="D69" t="n">
-        <v>0.3546016673306364</v>
+        <v>0.1187436567525336</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
@@ -2622,10 +2640,10 @@
         <v>0</v>
       </c>
       <c r="G69" t="n">
-        <v>-4063535778594006</v>
+        <v>8714524.261103742</v>
       </c>
       <c r="H69" t="n">
-        <v>2.258572838909962e+16</v>
+        <v>85790275.69375338</v>
       </c>
     </row>
     <row r="70">
@@ -2634,7 +2652,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>bcsstk20.mtx</t>
+          <t>bcsstk21.mtx</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -2643,7 +2661,7 @@
         </is>
       </c>
       <c r="D70" t="n">
-        <v>0.1376970621292511</v>
+        <v>0.09663069533479929</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
@@ -2654,10 +2672,10 @@
         <v>0</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.0155884349563258</v>
+        <v>0.001230420632511244</v>
       </c>
       <c r="H70" t="n">
-        <v>1.582338879065828e+16</v>
+        <v>107936640.9693799</v>
       </c>
     </row>
     <row r="71">
@@ -2666,7 +2684,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>bcsstk20.mtx</t>
+          <t>bcsstk21.mtx</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -2675,7 +2693,7 @@
         </is>
       </c>
       <c r="D71" t="n">
-        <v>0.1376970621292511</v>
+        <v>0.09663069533479929</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
@@ -2686,10 +2704,10 @@
         <v>0</v>
       </c>
       <c r="G71" t="n">
-        <v>0.9845324358187697</v>
+        <v>1.001231177910536</v>
       </c>
       <c r="H71" t="n">
-        <v>1.582338879065828e+16</v>
+        <v>107936640.9693799</v>
       </c>
     </row>
     <row r="72">
@@ -2698,7 +2716,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>bcsstk20.mtx</t>
+          <t>bcsstk21.mtx</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -2707,7 +2725,7 @@
         </is>
       </c>
       <c r="D72" t="n">
-        <v>0.3203728878310145</v>
+        <v>0.170958425849343</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
@@ -2718,10 +2736,10 @@
         <v>0</v>
       </c>
       <c r="G72" t="n">
-        <v>-0.1730872230196245</v>
+        <v>0.106284240232234</v>
       </c>
       <c r="H72" t="n">
-        <v>1.937916066198685e+16</v>
+        <v>76688960.39295471</v>
       </c>
     </row>
     <row r="73">
@@ -2730,7 +2748,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>bcsstk20.mtx</t>
+          <t>bcsstk21.mtx</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -2739,7 +2757,7 @@
         </is>
       </c>
       <c r="D73" t="n">
-        <v>0.3038041720343247</v>
+        <v>0.1126053222925558</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
@@ -2747,13 +2765,13 @@
         </is>
       </c>
       <c r="F73" t="n">
-        <v>2.332563120249653e+16</v>
+        <v>102509354.5175043</v>
       </c>
       <c r="G73" t="n">
-        <v>-1880091765271976</v>
+        <v>445453.6051513306</v>
       </c>
       <c r="H73" t="n">
-        <v>72470007749850.88</v>
+        <v>-1822.975055323435</v>
       </c>
     </row>
     <row r="74">
@@ -2762,7 +2780,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>bcsstk21.mtx</t>
+          <t>bcsstk19.mtx</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -2771,7 +2789,7 @@
         </is>
       </c>
       <c r="D74" t="n">
-        <v>0.00112768325504865</v>
+        <v>0.5043373576009351</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
@@ -2782,10 +2800,10 @@
         <v>0</v>
       </c>
       <c r="G74" t="n">
-        <v>-25219.02647059984</v>
+        <v>280114159521.306</v>
       </c>
       <c r="H74" t="n">
-        <v>132101751.9691659</v>
+        <v>187061265370320</v>
       </c>
     </row>
     <row r="75">
@@ -2794,7 +2812,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>bcsstk21.mtx</t>
+          <t>bcsstk19.mtx</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -2803,7 +2821,7 @@
         </is>
       </c>
       <c r="D75" t="n">
-        <v>0.03289421193247585</v>
+        <v>0.6855432700827737</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
@@ -2814,10 +2832,10 @@
         <v>0</v>
       </c>
       <c r="G75" t="n">
-        <v>-13626576.47893908</v>
+        <v>4014593118719.748</v>
       </c>
       <c r="H75" t="n">
-        <v>193620711.3729347</v>
+        <v>180750168257507.4</v>
       </c>
     </row>
     <row r="76">
@@ -2826,7 +2844,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>bcsstk21.mtx</t>
+          <t>bcsstk19.mtx</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -2835,7 +2853,7 @@
         </is>
       </c>
       <c r="D76" t="n">
-        <v>0.02963476311217193</v>
+        <v>0.5005781796354511</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
@@ -2846,10 +2864,10 @@
         <v>0</v>
       </c>
       <c r="G76" t="n">
-        <v>0.0002807778816427063</v>
+        <v>0.001481272069109984</v>
       </c>
       <c r="H76" t="n">
-        <v>118729037.4400694</v>
+        <v>187050894332128.1</v>
       </c>
     </row>
     <row r="77">
@@ -2858,7 +2876,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>bcsstk21.mtx</t>
+          <t>bcsstk19.mtx</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -2867,7 +2885,7 @@
         </is>
       </c>
       <c r="D77" t="n">
-        <v>0.02963476311217193</v>
+        <v>0.5005781796354511</v>
       </c>
       <c r="E77" t="inlineStr">
         <is>
@@ -2878,10 +2896,10 @@
         <v>0</v>
       </c>
       <c r="G77" t="n">
-        <v>1.000280817303442</v>
+        <v>1.001482369694475</v>
       </c>
       <c r="H77" t="n">
-        <v>118729037.4400694</v>
+        <v>187050894332128.1</v>
       </c>
     </row>
     <row r="78">
@@ -2890,7 +2908,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>bcsstk21.mtx</t>
+          <t>bcsstk19.mtx</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -2899,7 +2917,7 @@
         </is>
       </c>
       <c r="D78" t="n">
-        <v>0.02626074247773988</v>
+        <v>0.6816170414276017</v>
       </c>
       <c r="E78" t="inlineStr">
         <is>
@@ -2910,10 +2928,10 @@
         <v>0</v>
       </c>
       <c r="G78" t="n">
-        <v>0.02644282962655675</v>
+        <v>0.0212480315824696</v>
       </c>
       <c r="H78" t="n">
-        <v>109553534.6224103</v>
+        <v>180902819483102.3</v>
       </c>
     </row>
     <row r="79">
@@ -2922,7 +2940,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>bcsstk21.mtx</t>
+          <t>bcsstk19.mtx</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -2931,7 +2949,7 @@
         </is>
       </c>
       <c r="D79" t="n">
-        <v>0.005496288352213588</v>
+        <v>0.8375400730891237</v>
       </c>
       <c r="E79" t="inlineStr">
         <is>
@@ -2939,13 +2957,13 @@
         </is>
       </c>
       <c r="F79" t="n">
-        <v>142931856.1900561</v>
+        <v>179314001132713.9</v>
       </c>
       <c r="G79" t="n">
-        <v>-218039.8731333327</v>
+        <v>1586881621286.198</v>
       </c>
       <c r="H79" t="n">
-        <v>573.8715674486097</v>
+        <v>-46670266491.60333</v>
       </c>
     </row>
     <row r="80">
@@ -2954,7 +2972,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>bcsstk21.mtx</t>
+          <t>bcsstk19.mtx</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -2963,7 +2981,7 @@
         </is>
       </c>
       <c r="D80" t="n">
-        <v>0.003166930385584587</v>
+        <v>0.08770513324590024</v>
       </c>
       <c r="E80" t="inlineStr">
         <is>
@@ -2974,10 +2992,10 @@
         <v>0</v>
       </c>
       <c r="G80" t="n">
-        <v>-104857.4941572392</v>
+        <v>8799078555.11422</v>
       </c>
       <c r="H80" t="n">
-        <v>139254447.2542117</v>
+        <v>191990312358974.7</v>
       </c>
     </row>
     <row r="81">
@@ -2986,7 +3004,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>bcsstk21.mtx</t>
+          <t>bcsstk19.mtx</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -2995,7 +3013,7 @@
         </is>
       </c>
       <c r="D81" t="n">
-        <v>0.05167781397881215</v>
+        <v>0.1287899737783438</v>
       </c>
       <c r="E81" t="inlineStr">
         <is>
@@ -3006,10 +3024,10 @@
         <v>0</v>
       </c>
       <c r="G81" t="n">
-        <v>-23825413.35764689</v>
+        <v>102827592784.2139</v>
       </c>
       <c r="H81" t="n">
-        <v>230508981.2127289</v>
+        <v>191847109190818.4</v>
       </c>
     </row>
     <row r="82">
@@ -3018,7 +3036,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>bcsstk21.mtx</t>
+          <t>bcsstk19.mtx</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -3027,7 +3045,7 @@
         </is>
       </c>
       <c r="D82" t="n">
-        <v>0.04064716117910011</v>
+        <v>0.08783932194939643</v>
       </c>
       <c r="E82" t="inlineStr">
         <is>
@@ -3038,10 +3056,10 @@
         <v>0</v>
       </c>
       <c r="G82" t="n">
-        <v>0.001091894832433678</v>
+        <v>4.586961163293504e-05</v>
       </c>
       <c r="H82" t="n">
-        <v>109782517.6271522</v>
+        <v>191990184598922</v>
       </c>
     </row>
     <row r="83">
@@ -3050,7 +3068,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>bcsstk21.mtx</t>
+          <t>bcsstk19.mtx</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -3059,7 +3077,7 @@
         </is>
       </c>
       <c r="D83" t="n">
-        <v>0.04064716117910011</v>
+        <v>0.08783932194939643</v>
       </c>
       <c r="E83" t="inlineStr">
         <is>
@@ -3070,10 +3088,10 @@
         <v>0</v>
       </c>
       <c r="G83" t="n">
-        <v>1.001092491166621</v>
+        <v>1.00004587066366</v>
       </c>
       <c r="H83" t="n">
-        <v>109782517.6271522</v>
+        <v>191990184598922</v>
       </c>
     </row>
     <row r="84">
@@ -3082,7 +3100,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>bcsstk21.mtx</t>
+          <t>bcsstk19.mtx</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -3091,7 +3109,7 @@
         </is>
       </c>
       <c r="D84" t="n">
-        <v>0.03040319165378774</v>
+        <v>0.1289767328459603</v>
       </c>
       <c r="E84" t="inlineStr">
         <is>
@@ -3102,10 +3120,10 @@
         <v>0</v>
       </c>
       <c r="G84" t="n">
-        <v>0.05311698917444856</v>
+        <v>0.0005360190373886471</v>
       </c>
       <c r="H84" t="n">
-        <v>97014603.21337225</v>
+        <v>191846923282395.2</v>
       </c>
     </row>
     <row r="85">
@@ -3114,7 +3132,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>bcsstk21.mtx</t>
+          <t>bcsstk19.mtx</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -3123,7 +3141,7 @@
         </is>
       </c>
       <c r="D85" t="n">
-        <v>0.01292056517694394</v>
+        <v>0.1811419645044609</v>
       </c>
       <c r="E85" t="inlineStr">
         <is>
@@ -3131,13 +3149,13 @@
         </is>
       </c>
       <c r="F85" t="n">
-        <v>161588423.1586334</v>
+        <v>191697987255285.1</v>
       </c>
       <c r="G85" t="n">
-        <v>-821455.6515183623</v>
+        <v>71227829512.55412</v>
       </c>
       <c r="H85" t="n">
-        <v>3852.678265382377</v>
+        <v>-2972797664.640917</v>
       </c>
     </row>
     <row r="86">
@@ -3146,7 +3164,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>bcsstk17.mtx</t>
+          <t>bcsstk23.mtx</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -3155,7 +3173,7 @@
         </is>
       </c>
       <c r="D86" t="n">
-        <v>0.4208700601240767</v>
+        <v>0.5924352044017521</v>
       </c>
       <c r="E86" t="inlineStr">
         <is>
@@ -3166,10 +3184,10 @@
         <v>0</v>
       </c>
       <c r="G86" t="n">
-        <v>293181638.2259642</v>
+        <v>60844357247520.2</v>
       </c>
       <c r="H86" t="n">
-        <v>8226578539.109383</v>
+        <v>2.112131928628117e+16</v>
       </c>
     </row>
     <row r="87">
@@ -3178,7 +3196,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>bcsstk17.mtx</t>
+          <t>bcsstk23.mtx</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -3187,7 +3205,7 @@
         </is>
       </c>
       <c r="D87" t="n">
-        <v>0.5672803775937112</v>
+        <v>0.7999657912193396</v>
       </c>
       <c r="E87" t="inlineStr">
         <is>
@@ -3198,10 +3216,10 @@
         <v>0</v>
       </c>
       <c r="G87" t="n">
-        <v>2688365742.607683</v>
+        <v>1074249945230012</v>
       </c>
       <c r="H87" t="n">
-        <v>5675064494.617153</v>
+        <v>1.923590502333469e+16</v>
       </c>
     </row>
     <row r="88">
@@ -3210,7 +3228,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>bcsstk17.mtx</t>
+          <t>bcsstk23.mtx</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -3219,7 +3237,7 @@
         </is>
       </c>
       <c r="D88" t="n">
-        <v>0.3227302943686242</v>
+        <v>0.5839879983391374</v>
       </c>
       <c r="E88" t="inlineStr">
         <is>
@@ -3230,10 +3248,10 @@
         <v>0</v>
       </c>
       <c r="G88" t="n">
-        <v>0.0380019546391777</v>
+        <v>0.002796173553774226</v>
       </c>
       <c r="H88" t="n">
-        <v>7043315848.624919</v>
+        <v>2.111758980710575e+16</v>
       </c>
     </row>
     <row r="89">
@@ -3242,7 +3260,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>bcsstk17.mtx</t>
+          <t>bcsstk23.mtx</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -3251,7 +3269,7 @@
         </is>
       </c>
       <c r="D89" t="n">
-        <v>0.3227302943686242</v>
+        <v>0.5839879983391374</v>
       </c>
       <c r="E89" t="inlineStr">
         <is>
@@ -3262,10 +3280,10 @@
         <v>0</v>
       </c>
       <c r="G89" t="n">
-        <v>1.038733263225245</v>
+        <v>1.002800086493282</v>
       </c>
       <c r="H89" t="n">
-        <v>7043315848.624919</v>
+        <v>2.111758980710575e+16</v>
       </c>
     </row>
     <row r="90">
@@ -3274,7 +3292,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>bcsstk17.mtx</t>
+          <t>bcsstk23.mtx</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -3283,7 +3301,7 @@
         </is>
       </c>
       <c r="D90" t="n">
-        <v>0.4452502746999791</v>
+        <v>0.7925774697508625</v>
       </c>
       <c r="E90" t="inlineStr">
         <is>
@@ -3294,10 +3312,10 @@
         <v>0</v>
       </c>
       <c r="G90" t="n">
-        <v>0.3525452656311401</v>
+        <v>0.04949402550887316</v>
       </c>
       <c r="H90" t="n">
-        <v>5014638267.114428</v>
+        <v>1.935810877115867e+16</v>
       </c>
     </row>
     <row r="91">
@@ -3306,7 +3324,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>bcsstk17.mtx</t>
+          <t>bcsstk23.mtx</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -3315,7 +3333,7 @@
         </is>
       </c>
       <c r="D91" t="n">
-        <v>0.6583171536431489</v>
+        <v>0.9117268614582349</v>
       </c>
       <c r="E91" t="inlineStr">
         <is>
@@ -3323,13 +3341,13 @@
         </is>
       </c>
       <c r="F91" t="n">
-        <v>4645127500.172636</v>
+        <v>1.942941368998466e+16</v>
       </c>
       <c r="G91" t="n">
-        <v>1188544397.960153</v>
+        <v>292142843829830.4</v>
       </c>
       <c r="H91" t="n">
-        <v>-38928815.6406169</v>
+        <v>-6424957960619.715</v>
       </c>
     </row>
     <row r="92">
@@ -3338,7 +3356,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>bcsstk17.mtx</t>
+          <t>bcsstk23.mtx</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -3347,7 +3365,7 @@
         </is>
       </c>
       <c r="D92" t="n">
-        <v>0.2782049302693128</v>
+        <v>0.02355113393983512</v>
       </c>
       <c r="E92" t="inlineStr">
         <is>
@@ -3358,10 +3376,10 @@
         <v>0</v>
       </c>
       <c r="G92" t="n">
-        <v>466037769.8827865</v>
+        <v>-27701523380894.96</v>
       </c>
       <c r="H92" t="n">
-        <v>6699619656.853378</v>
+        <v>2.309591016239268e+16</v>
       </c>
     </row>
     <row r="93">
@@ -3370,7 +3388,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>bcsstk17.mtx</t>
+          <t>bcsstk23.mtx</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -3379,7 +3397,7 @@
         </is>
       </c>
       <c r="D93" t="n">
-        <v>0.3243369468568531</v>
+        <v>0.007277477218128363</v>
       </c>
       <c r="E93" t="inlineStr">
         <is>
@@ -3390,10 +3408,10 @@
         <v>0</v>
       </c>
       <c r="G93" t="n">
-        <v>3350198891.059447</v>
+        <v>-166236472132207.8</v>
       </c>
       <c r="H93" t="n">
-        <v>4352979572.097235</v>
+        <v>2.316425288877987e+16</v>
       </c>
     </row>
     <row r="94">
@@ -3402,7 +3420,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>bcsstk17.mtx</t>
+          <t>bcsstk23.mtx</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -3410,7 +3428,9 @@
           <t>MP_Aitken</t>
         </is>
       </c>
-      <c r="D94" t="inlineStr"/>
+      <c r="D94" t="n">
+        <v>0.01690318258615736</v>
+      </c>
       <c r="E94" t="inlineStr">
         <is>
           <t>Exponencial</t>
@@ -3419,8 +3439,12 @@
       <c r="F94" t="n">
         <v>0</v>
       </c>
-      <c r="G94" t="inlineStr"/>
-      <c r="H94" t="inlineStr"/>
+      <c r="G94" t="n">
+        <v>-0.001036488768860138</v>
+      </c>
+      <c r="H94" t="n">
+        <v>2.303477708676828e+16</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3428,7 +3452,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>bcsstk17.mtx</t>
+          <t>bcsstk23.mtx</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -3436,7 +3460,9 @@
           <t>MP_Aitken</t>
         </is>
       </c>
-      <c r="D95" t="inlineStr"/>
+      <c r="D95" t="n">
+        <v>0.01690318258615736</v>
+      </c>
       <c r="E95" t="inlineStr">
         <is>
           <t>Geometrico</t>
@@ -3445,8 +3471,12 @@
       <c r="F95" t="n">
         <v>0</v>
       </c>
-      <c r="G95" t="inlineStr"/>
-      <c r="H95" t="inlineStr"/>
+      <c r="G95" t="n">
+        <v>0.9989640482000871</v>
+      </c>
+      <c r="H95" t="n">
+        <v>2.303477708676828e+16</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3454,7 +3484,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>bcsstk17.mtx</t>
+          <t>bcsstk23.mtx</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -3462,7 +3492,9 @@
           <t>MP_Aitken</t>
         </is>
       </c>
-      <c r="D96" t="inlineStr"/>
+      <c r="D96" t="n">
+        <v>0.003481209506469996</v>
+      </c>
       <c r="E96" t="inlineStr">
         <is>
           <t>Potencial</t>
@@ -3471,8 +3503,12 @@
       <c r="F96" t="n">
         <v>0</v>
       </c>
-      <c r="G96" t="inlineStr"/>
-      <c r="H96" t="inlineStr"/>
+      <c r="G96" t="n">
+        <v>-0.005077893458350285</v>
+      </c>
+      <c r="H96" t="n">
+        <v>2.303025955530957e+16</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3480,7 +3516,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>bcsstk17.mtx</t>
+          <t>bcsstk23.mtx</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -3489,7 +3525,7 @@
         </is>
       </c>
       <c r="D97" t="n">
-        <v>0.3960678719363281</v>
+        <v>0.06837395360153029</v>
       </c>
       <c r="E97" t="inlineStr">
         <is>
@@ -3497,13 +3533,13 @@
         </is>
       </c>
       <c r="F97" t="n">
-        <v>2540223090.359879</v>
+        <v>2.184805720962304e+16</v>
       </c>
       <c r="G97" t="n">
-        <v>1713856739.830836</v>
+        <v>211249042043073.5</v>
       </c>
       <c r="H97" t="n">
-        <v>-65674682.62884469</v>
+        <v>-9956273559331.988</v>
       </c>
     </row>
     <row r="98">
@@ -3512,7 +3548,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>bcsstk27.mtx</t>
+          <t>bcsstk17.mtx</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -3521,7 +3557,7 @@
         </is>
       </c>
       <c r="D98" t="n">
-        <v>0.1799118661536922</v>
+        <v>0.3803649798066892</v>
       </c>
       <c r="E98" t="inlineStr">
         <is>
@@ -3532,10 +3568,10 @@
         <v>0</v>
       </c>
       <c r="G98" t="n">
-        <v>5105.161689910932</v>
+        <v>45272100.00933182</v>
       </c>
       <c r="H98" t="n">
-        <v>3156838.640484821</v>
+        <v>12187779628.74862</v>
       </c>
     </row>
     <row r="99">
@@ -3544,7 +3580,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>bcsstk27.mtx</t>
+          <t>bcsstk17.mtx</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -3553,7 +3589,7 @@
         </is>
       </c>
       <c r="D99" t="n">
-        <v>0.3359729810726882</v>
+        <v>0.5442017829682324</v>
       </c>
       <c r="E99" t="inlineStr">
         <is>
@@ -3564,10 +3600,10 @@
         <v>0</v>
       </c>
       <c r="G99" t="n">
-        <v>187121.6321100817</v>
+        <v>645590096.9592292</v>
       </c>
       <c r="H99" t="n">
-        <v>2725250.838228574</v>
+        <v>11174464390.64216</v>
       </c>
     </row>
     <row r="100">
@@ -3576,7 +3612,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>bcsstk27.mtx</t>
+          <t>bcsstk17.mtx</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -3585,7 +3621,7 @@
         </is>
       </c>
       <c r="D100" t="n">
-        <v>0.1348540617968211</v>
+        <v>0.3712177839234796</v>
       </c>
       <c r="E100" t="inlineStr">
         <is>
@@ -3596,10 +3632,10 @@
         <v>0</v>
       </c>
       <c r="G100" t="n">
-        <v>0.001916823164564943</v>
+        <v>0.003661845883085512</v>
       </c>
       <c r="H100" t="n">
-        <v>3089770.106837459</v>
+        <v>12175884063.04214</v>
       </c>
     </row>
     <row r="101">
@@ -3608,7 +3644,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>bcsstk27.mtx</t>
+          <t>bcsstk17.mtx</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -3617,7 +3653,7 @@
         </is>
       </c>
       <c r="D101" t="n">
-        <v>0.1348540617968211</v>
+        <v>0.3712177839234796</v>
       </c>
       <c r="E101" t="inlineStr">
         <is>
@@ -3628,10 +3664,10 @@
         <v>0</v>
       </c>
       <c r="G101" t="n">
-        <v>1.001918661444452</v>
+        <v>1.003668558631904</v>
       </c>
       <c r="H101" t="n">
-        <v>3089770.106837459</v>
+        <v>12175884063.04214</v>
       </c>
     </row>
     <row r="102">
@@ -3640,7 +3676,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>bcsstk27.mtx</t>
+          <t>bcsstk17.mtx</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -3649,7 +3685,7 @@
         </is>
       </c>
       <c r="D102" t="n">
-        <v>0.2848344597295296</v>
+        <v>0.5332931033271376</v>
       </c>
       <c r="E102" t="inlineStr">
         <is>
@@ -3660,10 +3696,10 @@
         <v>0</v>
       </c>
       <c r="G102" t="n">
-        <v>0.07472028523371438</v>
+        <v>0.05232571369555566</v>
       </c>
       <c r="H102" t="n">
-        <v>2587061.956309922</v>
+        <v>11214704258.53489</v>
       </c>
     </row>
     <row r="103">
@@ -3672,7 +3708,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>bcsstk27.mtx</t>
+          <t>bcsstk17.mtx</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -3681,7 +3717,7 @@
         </is>
       </c>
       <c r="D103" t="n">
-        <v>0.3287734861010778</v>
+        <v>0.7079969280655736</v>
       </c>
       <c r="E103" t="inlineStr">
         <is>
@@ -3689,13 +3725,13 @@
         </is>
       </c>
       <c r="F103" t="n">
-        <v>2892911.301977509</v>
+        <v>10774725486.40575</v>
       </c>
       <c r="G103" t="n">
-        <v>23307.04710420833</v>
+        <v>290888807.1547652</v>
       </c>
       <c r="H103" t="n">
-        <v>-211.6498303988067</v>
+        <v>-9096915.079460505</v>
       </c>
     </row>
     <row r="104">
@@ -3704,7 +3740,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>bcsstk27.mtx</t>
+          <t>bcsstk17.mtx</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -3713,7 +3749,7 @@
         </is>
       </c>
       <c r="D104" t="n">
-        <v>0.157294643215999</v>
+        <v>0.1757085324162781</v>
       </c>
       <c r="E104" t="inlineStr">
         <is>
@@ -3724,10 +3760,10 @@
         <v>0</v>
       </c>
       <c r="G104" t="n">
-        <v>10346.73152855476</v>
+        <v>-128648188.1787014</v>
       </c>
       <c r="H104" t="n">
-        <v>3104122.181245693</v>
+        <v>14754491922.4196</v>
       </c>
     </row>
     <row r="105">
@@ -3736,7 +3772,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>bcsstk27.mtx</t>
+          <t>bcsstk17.mtx</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -3745,7 +3781,7 @@
         </is>
       </c>
       <c r="D105" t="n">
-        <v>0.261147680767243</v>
+        <v>0.2673457938600847</v>
       </c>
       <c r="E105" t="inlineStr">
         <is>
@@ -3756,10 +3792,10 @@
         <v>0</v>
       </c>
       <c r="G105" t="n">
-        <v>214568.3437941184</v>
+        <v>-1652669447.207024</v>
       </c>
       <c r="H105" t="n">
-        <v>2729744.913379319</v>
+        <v>17196278318.78013</v>
       </c>
     </row>
     <row r="106">
@@ -3768,7 +3804,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>bcsstk27.mtx</t>
+          <t>bcsstk17.mtx</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -3777,7 +3813,7 @@
         </is>
       </c>
       <c r="D106" t="n">
-        <v>0.1310611064403195</v>
+        <v>0.171416512980357</v>
       </c>
       <c r="E106" t="inlineStr">
         <is>
@@ -3788,10 +3824,10 @@
         <v>0</v>
       </c>
       <c r="G106" t="n">
-        <v>0.004193042873972015</v>
+        <v>-0.008360249034382749</v>
       </c>
       <c r="H106" t="n">
-        <v>2997491.404206777</v>
+        <v>14561790498.02047</v>
       </c>
     </row>
     <row r="107">
@@ -3800,7 +3836,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>bcsstk27.mtx</t>
+          <t>bcsstk17.mtx</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -3809,7 +3845,7 @@
         </is>
       </c>
       <c r="D107" t="n">
-        <v>0.1310611064403195</v>
+        <v>0.171416512980357</v>
       </c>
       <c r="E107" t="inlineStr">
         <is>
@@ -3820,10 +3856,10 @@
         <v>0</v>
       </c>
       <c r="G107" t="n">
-        <v>1.004201845977874</v>
+        <v>0.9916746006625713</v>
       </c>
       <c r="H107" t="n">
-        <v>2997491.404206777</v>
+        <v>14561790498.02047</v>
       </c>
     </row>
     <row r="108">
@@ -3832,7 +3868,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>bcsstk27.mtx</t>
+          <t>bcsstk17.mtx</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -3841,7 +3877,7 @@
         </is>
       </c>
       <c r="D108" t="n">
-        <v>0.2425174412884577</v>
+        <v>0.2616851128833744</v>
       </c>
       <c r="E108" t="inlineStr">
         <is>
@@ -3852,10 +3888,10 @@
         <v>0</v>
       </c>
       <c r="G108" t="n">
-        <v>0.09179948084635449</v>
+        <v>-0.107578247842389</v>
       </c>
       <c r="H108" t="n">
-        <v>2538983.611459375</v>
+        <v>17073130532.54376</v>
       </c>
     </row>
     <row r="109">
@@ -3864,7 +3900,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>bcsstk27.mtx</t>
+          <t>bcsstk17.mtx</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -3873,7 +3909,7 @@
         </is>
       </c>
       <c r="D109" t="n">
-        <v>0.2848003171147921</v>
+        <v>0.4109405375461024</v>
       </c>
       <c r="E109" t="inlineStr">
         <is>
@@ -3881,13 +3917,13 @@
         </is>
       </c>
       <c r="F109" t="n">
-        <v>2790929.566863136</v>
+        <v>19580726848.33659</v>
       </c>
       <c r="G109" t="n">
-        <v>47192.92145591434</v>
+        <v>-1085574078.662239</v>
       </c>
       <c r="H109" t="n">
-        <v>-736.9237985471923</v>
+        <v>41605473.49928423</v>
       </c>
     </row>
     <row r="110">
@@ -3896,7 +3932,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>bcsstk19.mtx</t>
+          <t>bcsstk18.mtx</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -3905,7 +3941,7 @@
         </is>
       </c>
       <c r="D110" t="n">
-        <v>0.1077281164208469</v>
+        <v>0.8883836530090243</v>
       </c>
       <c r="E110" t="inlineStr">
         <is>
@@ -3916,10 +3952,10 @@
         <v>0</v>
       </c>
       <c r="G110" t="n">
-        <v>-11633914732859.58</v>
+        <v>432653145.087368</v>
       </c>
       <c r="H110" t="n">
-        <v>377270620840401.1</v>
+        <v>28489590646.70816</v>
       </c>
     </row>
     <row r="111">
@@ -3928,7 +3964,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>bcsstk19.mtx</t>
+          <t>bcsstk18.mtx</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -3937,7 +3973,7 @@
         </is>
       </c>
       <c r="D111" t="n">
-        <v>0.3177238610598498</v>
+        <v>0.8246577643804811</v>
       </c>
       <c r="E111" t="inlineStr">
         <is>
@@ -3948,10 +3984,10 @@
         <v>0</v>
       </c>
       <c r="G111" t="n">
-        <v>-163964693314993.1</v>
+        <v>7506744668.058884</v>
       </c>
       <c r="H111" t="n">
-        <v>605562458501514.1</v>
+        <v>15819372434.72892</v>
       </c>
     </row>
     <row r="112">
@@ -3960,7 +3996,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>bcsstk19.mtx</t>
+          <t>bcsstk18.mtx</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -3969,7 +4005,7 @@
         </is>
       </c>
       <c r="D112" t="n">
-        <v>0.07198499292049584</v>
+        <v>0.8881612740306577</v>
       </c>
       <c r="E112" t="inlineStr">
         <is>
@@ -3980,10 +4016,10 @@
         <v>0</v>
       </c>
       <c r="G112" t="n">
-        <v>-0.01637867151275148</v>
+        <v>0.01153111563273883</v>
       </c>
       <c r="H112" t="n">
-        <v>248336610242439</v>
+        <v>29269258198.14857</v>
       </c>
     </row>
     <row r="113">
@@ -3992,7 +4028,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>bcsstk19.mtx</t>
+          <t>bcsstk18.mtx</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -4001,7 +4037,7 @@
         </is>
       </c>
       <c r="D113" t="n">
-        <v>0.07198499292049584</v>
+        <v>0.8881612740306577</v>
       </c>
       <c r="E113" t="inlineStr">
         <is>
@@ -4012,10 +4048,10 @@
         <v>0</v>
       </c>
       <c r="G113" t="n">
-        <v>0.9837547296234033</v>
+        <v>1.011597855227241</v>
       </c>
       <c r="H113" t="n">
-        <v>248336610242439</v>
+        <v>29269258198.14857</v>
       </c>
     </row>
     <row r="114">
@@ -4024,7 +4060,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>bcsstk19.mtx</t>
+          <t>bcsstk18.mtx</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -4033,7 +4069,7 @@
         </is>
       </c>
       <c r="D114" t="n">
-        <v>0.2450977687124918</v>
+        <v>0.8330522589803666</v>
       </c>
       <c r="E114" t="inlineStr">
         <is>
@@ -4044,10 +4080,10 @@
         <v>0</v>
       </c>
       <c r="G114" t="n">
-        <v>-0.2480227112036288</v>
+        <v>0.2011114124383144</v>
       </c>
       <c r="H114" t="n">
-        <v>355934460609667.4</v>
+        <v>20817065953.29324</v>
       </c>
     </row>
     <row r="115">
@@ -4056,7 +4092,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>bcsstk19.mtx</t>
+          <t>bcsstk18.mtx</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -4065,7 +4101,7 @@
         </is>
       </c>
       <c r="D115" t="n">
-        <v>0.2686769644790976</v>
+        <v>0.8938331437971787</v>
       </c>
       <c r="E115" t="inlineStr">
         <is>
@@ -4073,13 +4109,13 @@
         </is>
       </c>
       <c r="F115" t="n">
-        <v>617635636279991</v>
+        <v>27054865508.86507</v>
       </c>
       <c r="G115" t="n">
-        <v>-69321518438361.04</v>
+        <v>597909443.6870965</v>
       </c>
       <c r="H115" t="n">
-        <v>2403650154395.893</v>
+        <v>-3755824.968175633</v>
       </c>
     </row>
     <row r="116">
@@ -4088,7 +4124,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>bcsstk19.mtx</t>
+          <t>bcsstk18.mtx</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -4097,7 +4133,7 @@
         </is>
       </c>
       <c r="D116" t="n">
-        <v>0.1585238487125105</v>
+        <v>0.04421414385150369</v>
       </c>
       <c r="E116" t="inlineStr">
         <is>
@@ -4108,10 +4144,10 @@
         <v>0</v>
       </c>
       <c r="G116" t="n">
-        <v>-24103512946637.51</v>
+        <v>388201260.9524029</v>
       </c>
       <c r="H116" t="n">
-        <v>464450458916393.2</v>
+        <v>26733120819.90343</v>
       </c>
     </row>
     <row r="117">
@@ -4120,7 +4156,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>bcsstk19.mtx</t>
+          <t>bcsstk18.mtx</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -4129,7 +4165,7 @@
         </is>
       </c>
       <c r="D117" t="n">
-        <v>0.3892376513765454</v>
+        <v>0.02393202578289802</v>
       </c>
       <c r="E117" t="inlineStr">
         <is>
@@ -4140,10 +4176,10 @@
         <v>0</v>
       </c>
       <c r="G117" t="n">
-        <v>-227860725002802.2</v>
+        <v>4441096645.437031</v>
       </c>
       <c r="H117" t="n">
-        <v>696377616429728.6</v>
+        <v>21482960720.94191</v>
       </c>
     </row>
     <row r="118">
@@ -4152,7 +4188,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>bcsstk19.mtx</t>
+          <t>bcsstk18.mtx</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -4160,9 +4196,7 @@
           <t>MP_Aitken</t>
         </is>
       </c>
-      <c r="D118" t="n">
-        <v>0.1186523451192687</v>
-      </c>
+      <c r="D118" t="inlineStr"/>
       <c r="E118" t="inlineStr">
         <is>
           <t>Exponencial</t>
@@ -4171,12 +4205,8 @@
       <c r="F118" t="n">
         <v>0</v>
       </c>
-      <c r="G118" t="n">
-        <v>-0.03591081723153794</v>
-      </c>
-      <c r="H118" t="n">
-        <v>287253020045397.5</v>
-      </c>
+      <c r="G118" t="inlineStr"/>
+      <c r="H118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4184,7 +4214,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>bcsstk19.mtx</t>
+          <t>bcsstk18.mtx</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -4192,9 +4222,7 @@
           <t>MP_Aitken</t>
         </is>
       </c>
-      <c r="D119" t="n">
-        <v>0.1186523451192687</v>
-      </c>
+      <c r="D119" t="inlineStr"/>
       <c r="E119" t="inlineStr">
         <is>
           <t>Geometrico</t>
@@ -4203,12 +4231,8 @@
       <c r="F119" t="n">
         <v>0</v>
       </c>
-      <c r="G119" t="n">
-        <v>0.9647263266113453</v>
-      </c>
-      <c r="H119" t="n">
-        <v>287253020045397.5</v>
-      </c>
+      <c r="G119" t="inlineStr"/>
+      <c r="H119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4216,7 +4240,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>bcsstk19.mtx</t>
+          <t>bcsstk18.mtx</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -4224,9 +4248,7 @@
           <t>MP_Aitken</t>
         </is>
       </c>
-      <c r="D120" t="n">
-        <v>0.3180886371414415</v>
-      </c>
+      <c r="D120" t="inlineStr"/>
       <c r="E120" t="inlineStr">
         <is>
           <t>Potencial</t>
@@ -4235,12 +4257,8 @@
       <c r="F120" t="n">
         <v>0</v>
       </c>
-      <c r="G120" t="n">
-        <v>-0.3547237092675387</v>
-      </c>
-      <c r="H120" t="n">
-        <v>417850508353016.1</v>
-      </c>
+      <c r="G120" t="inlineStr"/>
+      <c r="H120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4248,7 +4266,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>bcsstk19.mtx</t>
+          <t>bcsstk18.mtx</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -4257,7 +4275,7 @@
         </is>
       </c>
       <c r="D121" t="n">
-        <v>0.3732906415075357</v>
+        <v>0.1095269997047393</v>
       </c>
       <c r="E121" t="inlineStr">
         <is>
@@ -4265,13 +4283,13 @@
         </is>
       </c>
       <c r="F121" t="n">
-        <v>813536224497341.2</v>
+        <v>44857108823.29947</v>
       </c>
       <c r="G121" t="n">
-        <v>-140465434806953.6</v>
+        <v>-2032692443.472337</v>
       </c>
       <c r="H121" t="n">
-        <v>6844818932959.773</v>
+        <v>65429559.57904705</v>
       </c>
     </row>
   </sheetData>
